--- a/biology/Médecine/Ulcération/Ulcération.xlsx
+++ b/biology/Médecine/Ulcération/Ulcération.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ulc%C3%A9ration</t>
+          <t>Ulcération</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ulcération est une lésion élémentaire en pathologie dermatologique, caractérisée par une perte de substance dermique. À la différence de l'érosion, l'ulcération intéresse toute la peau sur ses couches profondes (derme et hypoderme). De nombreuses dermatoses et lésions élémentaires peuvent faire apparaître secondairement des ulcérations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ulc%C3%A9ration</t>
+          <t>Ulcération</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Lésions élémentaires s'ulcérant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bulles
 Vésicules
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ulc%C3%A9ration</t>
+          <t>Ulcération</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Anatomie pathologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ulcération peut également toucher tous les revêtements épithéliaux (muqueuse digestive notamment).
 On peut affirmer la présence d'une ulcération lorsque l'on observe microscopiquement un exsudat fibrinoleucocytaire.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ulc%C3%A9ration</t>
+          <t>Ulcération</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Maladies accompagnées d'ulcérations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Outre les dermatoses accompagnées des lésions élémentaires précédentes, on note :
 le chancre syphilitique
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ulc%C3%A9ration</t>
+          <t>Ulcération</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +633,12 @@
           <t>Ulcération vulvo-vaginale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Une ulcération de la vulve ou du vagin peut être le signe clinique révélateur de différentes pathologies. Le diagnostic différentiel repose sur les données cliniques, une sérologie afin d'éliminer un herpès ou la syphilis et éventuellement une biopsie.
-Diagnostic différentiel[1],[2] :
+Diagnostic différentiel, :
 ulcération herpétique ;
 chancre syphilitique ;
 adénose, parfois en rapport avec une exposition au diéthylstilbestrol ;
